--- a/MijnPythonScripts/Replication-201401.xlsx
+++ b/MijnPythonScripts/Replication-201401.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19665" yWindow="135" windowWidth="18195" windowHeight="8385"/>
+    <workbookView xWindow="19660" yWindow="140" windowWidth="18200" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -300,7 +305,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,###"/>
-    <numFmt numFmtId="166" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -365,36 +370,36 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -403,7 +408,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -414,18 +419,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,7 +438,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -441,10 +446,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -455,7 +460,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -489,29 +494,30 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
@@ -812,78 +818,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:CJ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="44" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="78" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="88" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="44" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="78" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A1" s="33">
+    <row r="1" spans="1:88">
+      <c r="A1" s="35">
         <v>41913</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
@@ -1137,11 +1143,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
+    <row r="2" spans="1:88">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
@@ -1923,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
@@ -2185,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -2713,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
@@ -2975,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
@@ -3503,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
@@ -3765,13 +3771,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+    <row r="12" spans="1:88">
+      <c r="A12" s="39">
         <v>41852</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="18" t="s">
         <v>7</v>
       </c>
@@ -4025,11 +4031,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+    <row r="13" spans="1:88">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="19" t="s">
         <v>8</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88">
       <c r="A14" s="27" t="s">
         <v>0</v>
       </c>
@@ -4549,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29" t="s">
@@ -4811,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31" t="s">
@@ -5073,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:88">
       <c r="A17" s="27" t="s">
         <v>0</v>
       </c>
@@ -5339,7 +5345,7 @@
         <v>-9963182.2400000002</v>
       </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:88">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29" t="s">
@@ -5601,7 +5607,7 @@
         <v>1.313569</v>
       </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:88">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31" t="s">
@@ -5863,7 +5869,7 @@
         <v>6.9673586639999989</v>
       </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:88">
       <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
@@ -6129,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:88">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29" t="s">
@@ -6391,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:88">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31" t="s">
@@ -6653,13 +6659,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+    <row r="23" spans="1:88">
+      <c r="A23" s="39">
         <v>41821</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="18" t="s">
         <v>7</v>
       </c>
@@ -6913,11 +6919,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
+    <row r="24" spans="1:88">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="19" t="s">
         <v>8</v>
       </c>
@@ -7171,7 +7177,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:88">
       <c r="A25" s="27" t="s">
         <v>0</v>
       </c>
@@ -7437,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:88">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29" t="s">
@@ -7699,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:88">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31" t="s">
@@ -7961,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:88">
       <c r="A28" s="27" t="s">
         <v>0</v>
       </c>
@@ -8227,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:88">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29" t="s">
@@ -8489,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:88">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
@@ -8751,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:88">
       <c r="A31" s="27" t="s">
         <v>0</v>
       </c>
@@ -9017,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:88">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29" t="s">
@@ -9279,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:88">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31" t="s">
@@ -9541,525 +9547,525 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
+    <row r="34" spans="1:88">
+      <c r="A34" s="39">
         <v>41760</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="O34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="R34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="S34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="T34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="U34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="W34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CH34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CJ34" s="39" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="U34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="V34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="W34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="X34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI34" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ34" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="40" t="s">
+    <row r="35" spans="1:88">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="40" t="s">
+      <c r="J35" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="40" t="s">
+      <c r="K35" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="40" t="s">
+      <c r="L35" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="40" t="s">
+      <c r="M35" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="40" t="s">
+      <c r="N35" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O35" s="40" t="s">
+      <c r="O35" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P35" s="40" t="s">
+      <c r="P35" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="40" t="s">
+      <c r="Q35" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="40" t="s">
+      <c r="R35" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="S35" s="40" t="s">
+      <c r="S35" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="T35" s="40" t="s">
+      <c r="T35" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="U35" s="40" t="s">
+      <c r="U35" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="V35" s="40" t="s">
+      <c r="V35" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="W35" s="40" t="s">
+      <c r="W35" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="X35" s="40" t="s">
+      <c r="X35" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="Y35" s="40" t="s">
+      <c r="Y35" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Z35" s="40" t="s">
+      <c r="Z35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AA35" s="40" t="s">
+      <c r="AA35" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AB35" s="40" t="s">
+      <c r="AB35" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AC35" s="40" t="s">
+      <c r="AC35" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AD35" s="40" t="s">
+      <c r="AD35" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AE35" s="40" t="s">
+      <c r="AE35" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AF35" s="40" t="s">
+      <c r="AF35" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AG35" s="40" t="s">
+      <c r="AG35" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AH35" s="40" t="s">
+      <c r="AH35" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AI35" s="40" t="s">
+      <c r="AI35" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AJ35" s="40" t="s">
+      <c r="AJ35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AK35" s="40" t="s">
+      <c r="AK35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AL35" s="40" t="s">
+      <c r="AL35" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AM35" s="40" t="s">
+      <c r="AM35" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AN35" s="40" t="s">
+      <c r="AN35" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AO35" s="40" t="s">
+      <c r="AO35" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AP35" s="40" t="s">
+      <c r="AP35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AQ35" s="40" t="s">
+      <c r="AQ35" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AR35" s="40" t="s">
+      <c r="AR35" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AS35" s="40" t="s">
+      <c r="AS35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AT35" s="40" t="s">
+      <c r="AT35" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AU35" s="40" t="s">
+      <c r="AU35" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AV35" s="40" t="s">
+      <c r="AV35" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AW35" s="40" t="s">
+      <c r="AW35" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AX35" s="40" t="s">
+      <c r="AX35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AY35" s="40" t="s">
+      <c r="AY35" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AZ35" s="40" t="s">
+      <c r="AZ35" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="BA35" s="40" t="s">
+      <c r="BA35" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="BB35" s="40" t="s">
+      <c r="BB35" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="BC35" s="40" t="s">
+      <c r="BC35" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="BD35" s="40" t="s">
+      <c r="BD35" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="BE35" s="40" t="s">
+      <c r="BE35" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="BF35" s="40" t="s">
+      <c r="BF35" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="BG35" s="40" t="s">
+      <c r="BG35" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="BH35" s="40" t="s">
+      <c r="BH35" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="BI35" s="40" t="s">
+      <c r="BI35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="BJ35" s="40" t="s">
+      <c r="BJ35" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="BK35" s="40" t="s">
+      <c r="BK35" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="BL35" s="40" t="s">
+      <c r="BL35" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="BM35" s="40" t="s">
+      <c r="BM35" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="BN35" s="40" t="s">
+      <c r="BN35" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="BO35" s="40" t="s">
+      <c r="BO35" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="BP35" s="40" t="s">
+      <c r="BP35" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="BQ35" s="40" t="s">
+      <c r="BQ35" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="BR35" s="40" t="s">
+      <c r="BR35" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="BS35" s="40" t="s">
+      <c r="BS35" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="BT35" s="40" t="s">
+      <c r="BT35" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="BU35" s="40" t="s">
+      <c r="BU35" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="BV35" s="40" t="s">
+      <c r="BV35" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="BW35" s="40" t="s">
+      <c r="BW35" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="BX35" s="40" t="s">
+      <c r="BX35" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="BY35" s="40" t="s">
+      <c r="BY35" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="BZ35" s="40" t="s">
+      <c r="BZ35" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="CA35" s="40" t="s">
+      <c r="CA35" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="CB35" s="40" t="s">
+      <c r="CB35" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="CC35" s="40" t="s">
+      <c r="CC35" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="CD35" s="40" t="s">
+      <c r="CD35" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="CE35" s="40" t="s">
+      <c r="CE35" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="CF35" s="40" t="s">
+      <c r="CF35" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="CG35" s="40" t="s">
+      <c r="CG35" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="CH35" s="40" t="s">
+      <c r="CH35" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="CI35" s="40" t="s">
+      <c r="CI35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="CJ35" s="40" t="s">
+      <c r="CJ35" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:88">
       <c r="A36" s="27" t="s">
         <v>0</v>
       </c>
@@ -10325,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:88">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29" t="s">
@@ -10587,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:88">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31" t="s">
@@ -10849,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:88">
       <c r="A39" s="27" t="s">
         <v>0</v>
       </c>
@@ -11115,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:88">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29" t="s">
@@ -11377,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:88">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31" t="s">
@@ -11639,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:88">
       <c r="A42" s="27" t="s">
         <v>0</v>
       </c>
@@ -11905,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:88">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29" t="s">
@@ -12167,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:88">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31" t="s">
@@ -12429,525 +12435,525 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A45" s="37">
+    <row r="45" spans="1:88">
+      <c r="A45" s="39">
         <v>41730</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="N45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="R45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="S45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="T45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="U45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="W45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CH45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CJ45" s="39" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="P45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="U45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="V45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="W45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="X45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ45" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="40" t="s">
+    <row r="46" spans="1:88">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="40" t="s">
+      <c r="J46" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L46" s="40" t="s">
+      <c r="L46" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="40" t="s">
+      <c r="M46" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="40" t="s">
+      <c r="N46" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O46" s="40" t="s">
+      <c r="O46" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P46" s="40" t="s">
+      <c r="P46" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="40" t="s">
+      <c r="Q46" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="40" t="s">
+      <c r="R46" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="S46" s="40" t="s">
+      <c r="S46" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="T46" s="40" t="s">
+      <c r="T46" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="U46" s="40" t="s">
+      <c r="U46" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="V46" s="40" t="s">
+      <c r="V46" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="W46" s="40" t="s">
+      <c r="W46" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="X46" s="40" t="s">
+      <c r="X46" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="Y46" s="40" t="s">
+      <c r="Y46" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Z46" s="40" t="s">
+      <c r="Z46" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AA46" s="40" t="s">
+      <c r="AA46" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AB46" s="40" t="s">
+      <c r="AB46" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AC46" s="40" t="s">
+      <c r="AC46" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AD46" s="40" t="s">
+      <c r="AD46" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AE46" s="40" t="s">
+      <c r="AE46" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AF46" s="40" t="s">
+      <c r="AF46" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AG46" s="40" t="s">
+      <c r="AG46" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AH46" s="40" t="s">
+      <c r="AH46" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AI46" s="40" t="s">
+      <c r="AI46" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AJ46" s="40" t="s">
+      <c r="AJ46" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AK46" s="40" t="s">
+      <c r="AK46" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AL46" s="40" t="s">
+      <c r="AL46" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AM46" s="40" t="s">
+      <c r="AM46" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AN46" s="40" t="s">
+      <c r="AN46" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AO46" s="40" t="s">
+      <c r="AO46" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AP46" s="40" t="s">
+      <c r="AP46" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AQ46" s="40" t="s">
+      <c r="AQ46" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AR46" s="40" t="s">
+      <c r="AR46" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AS46" s="40" t="s">
+      <c r="AS46" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AT46" s="40" t="s">
+      <c r="AT46" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AU46" s="40" t="s">
+      <c r="AU46" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AV46" s="40" t="s">
+      <c r="AV46" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AW46" s="40" t="s">
+      <c r="AW46" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AX46" s="40" t="s">
+      <c r="AX46" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AY46" s="40" t="s">
+      <c r="AY46" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AZ46" s="40" t="s">
+      <c r="AZ46" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="BA46" s="40" t="s">
+      <c r="BA46" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="BB46" s="40" t="s">
+      <c r="BB46" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="BC46" s="40" t="s">
+      <c r="BC46" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="BD46" s="40" t="s">
+      <c r="BD46" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="BE46" s="40" t="s">
+      <c r="BE46" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="BF46" s="40" t="s">
+      <c r="BF46" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="BG46" s="40" t="s">
+      <c r="BG46" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="BH46" s="40" t="s">
+      <c r="BH46" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="BI46" s="40" t="s">
+      <c r="BI46" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="BJ46" s="40" t="s">
+      <c r="BJ46" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="BK46" s="40" t="s">
+      <c r="BK46" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="BL46" s="40" t="s">
+      <c r="BL46" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="BM46" s="40" t="s">
+      <c r="BM46" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="BN46" s="40" t="s">
+      <c r="BN46" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="BO46" s="40" t="s">
+      <c r="BO46" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="BP46" s="40" t="s">
+      <c r="BP46" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="BQ46" s="40" t="s">
+      <c r="BQ46" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="BR46" s="40" t="s">
+      <c r="BR46" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="BS46" s="40" t="s">
+      <c r="BS46" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="BT46" s="40" t="s">
+      <c r="BT46" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="BU46" s="40" t="s">
+      <c r="BU46" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="BV46" s="40" t="s">
+      <c r="BV46" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="BW46" s="40" t="s">
+      <c r="BW46" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="BX46" s="40" t="s">
+      <c r="BX46" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="BY46" s="40" t="s">
+      <c r="BY46" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="BZ46" s="40" t="s">
+      <c r="BZ46" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="CA46" s="40" t="s">
+      <c r="CA46" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="CB46" s="40" t="s">
+      <c r="CB46" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="CC46" s="40" t="s">
+      <c r="CC46" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="CD46" s="40" t="s">
+      <c r="CD46" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="CE46" s="40" t="s">
+      <c r="CE46" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="CF46" s="40" t="s">
+      <c r="CF46" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="CG46" s="40" t="s">
+      <c r="CG46" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="CH46" s="40" t="s">
+      <c r="CH46" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="CI46" s="40" t="s">
+      <c r="CI46" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="CJ46" s="40" t="s">
+      <c r="CJ46" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:88">
       <c r="A47" s="27" t="s">
         <v>0</v>
       </c>
@@ -13213,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:88">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29" t="s">
@@ -13475,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:88">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31" t="s">
@@ -13737,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:88">
       <c r="A50" s="27" t="s">
         <v>0</v>
       </c>
@@ -14003,7 +14009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:88">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29" t="s">
@@ -14265,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:88">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31" t="s">
@@ -14527,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:88">
       <c r="A53" s="27" t="s">
         <v>0</v>
       </c>
@@ -14793,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:88">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29" t="s">
@@ -15055,7 +15061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:88">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31" t="s">
@@ -15317,525 +15323,525 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A56" s="37">
+    <row r="56" spans="1:88">
+      <c r="A56" s="39">
         <v>41699</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="M56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="N56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="O56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="R56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="S56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="T56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="U56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="W56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CH56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CJ56" s="39" t="s">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="P56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="R56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="U56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="V56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="W56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="X56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ56" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="40" t="s">
+    <row r="57" spans="1:88">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="40" t="s">
+      <c r="I57" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="40" t="s">
+      <c r="J57" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="40" t="s">
+      <c r="K57" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L57" s="40" t="s">
+      <c r="L57" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M57" s="40" t="s">
+      <c r="M57" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="40" t="s">
+      <c r="N57" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O57" s="40" t="s">
+      <c r="O57" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P57" s="40" t="s">
+      <c r="P57" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q57" s="40" t="s">
+      <c r="Q57" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="40" t="s">
+      <c r="R57" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="S57" s="40" t="s">
+      <c r="S57" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="T57" s="40" t="s">
+      <c r="T57" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="U57" s="40" t="s">
+      <c r="U57" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="V57" s="40" t="s">
+      <c r="V57" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="W57" s="40" t="s">
+      <c r="W57" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="X57" s="40" t="s">
+      <c r="X57" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="Y57" s="40" t="s">
+      <c r="Y57" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Z57" s="40" t="s">
+      <c r="Z57" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AA57" s="40" t="s">
+      <c r="AA57" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AB57" s="40" t="s">
+      <c r="AB57" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AC57" s="40" t="s">
+      <c r="AC57" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AD57" s="40" t="s">
+      <c r="AD57" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AE57" s="40" t="s">
+      <c r="AE57" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AF57" s="40" t="s">
+      <c r="AF57" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AG57" s="40" t="s">
+      <c r="AG57" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AH57" s="40" t="s">
+      <c r="AH57" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AI57" s="40" t="s">
+      <c r="AI57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AJ57" s="40" t="s">
+      <c r="AJ57" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AK57" s="40" t="s">
+      <c r="AK57" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AL57" s="40" t="s">
+      <c r="AL57" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AM57" s="40" t="s">
+      <c r="AM57" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AN57" s="40" t="s">
+      <c r="AN57" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AO57" s="40" t="s">
+      <c r="AO57" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AP57" s="40" t="s">
+      <c r="AP57" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AQ57" s="40" t="s">
+      <c r="AQ57" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AR57" s="40" t="s">
+      <c r="AR57" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AS57" s="40" t="s">
+      <c r="AS57" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AT57" s="40" t="s">
+      <c r="AT57" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AU57" s="40" t="s">
+      <c r="AU57" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AV57" s="40" t="s">
+      <c r="AV57" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AW57" s="40" t="s">
+      <c r="AW57" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AX57" s="40" t="s">
+      <c r="AX57" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AY57" s="40" t="s">
+      <c r="AY57" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AZ57" s="40" t="s">
+      <c r="AZ57" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="BA57" s="40" t="s">
+      <c r="BA57" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="BB57" s="40" t="s">
+      <c r="BB57" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="BC57" s="40" t="s">
+      <c r="BC57" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="BD57" s="40" t="s">
+      <c r="BD57" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="BE57" s="40" t="s">
+      <c r="BE57" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="BF57" s="40" t="s">
+      <c r="BF57" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="BG57" s="40" t="s">
+      <c r="BG57" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="BH57" s="40" t="s">
+      <c r="BH57" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="BI57" s="40" t="s">
+      <c r="BI57" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="BJ57" s="40" t="s">
+      <c r="BJ57" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="BK57" s="40" t="s">
+      <c r="BK57" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="BL57" s="40" t="s">
+      <c r="BL57" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="BM57" s="40" t="s">
+      <c r="BM57" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="BN57" s="40" t="s">
+      <c r="BN57" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="BO57" s="40" t="s">
+      <c r="BO57" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="BP57" s="40" t="s">
+      <c r="BP57" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="BQ57" s="40" t="s">
+      <c r="BQ57" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="BR57" s="40" t="s">
+      <c r="BR57" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="BS57" s="40" t="s">
+      <c r="BS57" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="BT57" s="40" t="s">
+      <c r="BT57" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="BU57" s="40" t="s">
+      <c r="BU57" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="BV57" s="40" t="s">
+      <c r="BV57" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="BW57" s="40" t="s">
+      <c r="BW57" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="BX57" s="40" t="s">
+      <c r="BX57" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="BY57" s="40" t="s">
+      <c r="BY57" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="BZ57" s="40" t="s">
+      <c r="BZ57" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="CA57" s="40" t="s">
+      <c r="CA57" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="CB57" s="40" t="s">
+      <c r="CB57" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="CC57" s="40" t="s">
+      <c r="CC57" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="CD57" s="40" t="s">
+      <c r="CD57" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="CE57" s="40" t="s">
+      <c r="CE57" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="CF57" s="40" t="s">
+      <c r="CF57" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="CG57" s="40" t="s">
+      <c r="CG57" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="CH57" s="40" t="s">
+      <c r="CH57" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="CI57" s="40" t="s">
+      <c r="CI57" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="CJ57" s="40" t="s">
+      <c r="CJ57" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:88">
       <c r="A58" s="27" t="s">
         <v>0</v>
       </c>
@@ -16101,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:88">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29" t="s">
@@ -16363,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:88">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31" t="s">
@@ -16625,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:88">
       <c r="A61" s="27" t="s">
         <v>0</v>
       </c>
@@ -16891,7 +16897,7 @@
         <v>-5413421.7599999998</v>
       </c>
     </row>
-    <row r="62" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:88">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29" t="s">
@@ -17153,7 +17159,7 @@
         <v>2.0549910000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:88">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
       <c r="C63" s="31" t="s">
@@ -17415,7 +17421,7 @@
         <v>6.9673586639999989</v>
       </c>
     </row>
-    <row r="64" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:88">
       <c r="A64" s="27" t="s">
         <v>0</v>
       </c>
@@ -17681,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:88">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="29" t="s">
@@ -17943,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:88">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31" t="s">
@@ -18207,40 +18213,61 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A56:D57"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A12:D13"/>
     <mergeCell ref="A23:D24"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A56:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="41">
+        <v>41944</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>